--- a/Mr_Tovo/.Other/ToDo.xlsx
+++ b/Mr_Tovo/.Other/ToDo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Cote</t>
   </si>
@@ -67,13 +67,49 @@
     <t>Insertion specbesoin</t>
   </si>
   <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Charge de travaile dynamique(hommeJ)</t>
+  </si>
+  <si>
+    <t>Contrat a duree limite ou a vie</t>
+  </si>
+  <si>
     <t>affichage allCandidat</t>
   </si>
   <si>
     <t>affichage detaileCandidat</t>
   </si>
   <si>
+    <t>Affiche</t>
+  </si>
+  <si>
+    <t>Embaucher</t>
+  </si>
+  <si>
+    <t>Decliner</t>
+  </si>
+  <si>
     <t>Insertion question-reponse</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>en coure</t>
+  </si>
+  <si>
+    <t>affiche</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Create table membre(Departement)</t>
   </si>
 </sst>
 </file>
@@ -86,14 +122,7 @@
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,153 +578,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,19 +1045,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,11 +1067,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1051,73 +1081,176 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
-        <v>19</v>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Mr_Tovo/.Other/ToDo.xlsx
+++ b/Mr_Tovo/.Other/ToDo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Cote</t>
   </si>
@@ -34,82 +34,103 @@
     <t>Besoin</t>
   </si>
   <si>
-    <t>Affichage besoin</t>
+    <t>affichage</t>
+  </si>
+  <si>
+    <t>Postuler</t>
+  </si>
+  <si>
+    <t>QCM</t>
+  </si>
+  <si>
+    <t>Candidat</t>
+  </si>
+  <si>
+    <t>insertion</t>
+  </si>
+  <si>
+    <t>Experience</t>
   </si>
   <si>
     <t>CV</t>
   </si>
   <si>
-    <t>Insertion info candidat</t>
-  </si>
-  <si>
-    <t>Insertion PDF</t>
-  </si>
-  <si>
-    <t>Calcul noteCV</t>
-  </si>
-  <si>
-    <t>QCM</t>
-  </si>
-  <si>
-    <t>Affichage question-reponse</t>
-  </si>
-  <si>
-    <t>Calcul noteQCM</t>
+    <t>modification</t>
   </si>
   <si>
     <t>Back</t>
   </si>
   <si>
-    <t>Insertion besoin</t>
-  </si>
-  <si>
-    <t>Insertion specbesoin</t>
-  </si>
-  <si>
-    <t>Supprimer</t>
-  </si>
-  <si>
-    <t>Modifier</t>
-  </si>
-  <si>
-    <t>Charge de travaile dynamique(hommeJ)</t>
-  </si>
-  <si>
-    <t>Contrat a duree limite ou a vie</t>
-  </si>
-  <si>
-    <t>affichage allCandidat</t>
-  </si>
-  <si>
-    <t>affichage detaileCandidat</t>
-  </si>
-  <si>
-    <t>Affiche</t>
-  </si>
-  <si>
-    <t>Embaucher</t>
-  </si>
-  <si>
-    <t>Decliner</t>
-  </si>
-  <si>
-    <t>Insertion question-reponse</t>
+    <t>ajout</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Contrat</t>
+  </si>
+  <si>
+    <t>liste</t>
+  </si>
+  <si>
+    <t>Entretient</t>
+  </si>
+  <si>
+    <t>Embaucher/Decliner</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>Priorite</t>
   </si>
   <si>
     <t>Insert</t>
   </si>
   <si>
-    <t>en coure</t>
-  </si>
-  <si>
-    <t>affiche</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Create table membre(Departement)</t>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Changer etat</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Fiche de paie(Ex dans FB)</t>
+  </si>
+  <si>
+    <t>Congée</t>
+  </si>
+  <si>
+    <t>Demande de congee</t>
+  </si>
+  <si>
+    <t>validation superieur  hierarchique et resource humaine</t>
+  </si>
+  <si>
+    <t>Liste</t>
+  </si>
+  <si>
+    <t>gestion</t>
+  </si>
+  <si>
+    <t>calcul cumule</t>
+  </si>
+  <si>
+    <t>restant</t>
+  </si>
+  <si>
+    <t>Absence</t>
+  </si>
+  <si>
+    <t>insertion en jour ,heure</t>
   </si>
 </sst>
 </file>
@@ -122,9 +143,16 @@
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -593,138 +621,139 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1045,29 +1074,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="19.3703703703704" customWidth="1"/>
+    <col min="12" max="12" width="16.3518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1081,176 +1112,353 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
-      <c r="C13" t="s">
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1">
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
       <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
+      <c r="G19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:7">
       <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
+    <row r="21" spans="7:7">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7">
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7">
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G33" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" t="s">
         <v>27</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7">
-      <c r="D32" t="s">
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="3:7">
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47" s="2">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Mr_Tovo/.Other/ToDo.xlsx
+++ b/Mr_Tovo/.Other/ToDo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Cote</t>
   </si>
@@ -73,33 +73,36 @@
     <t>note</t>
   </si>
   <si>
+    <t>Contrat(definitif/essai)</t>
+  </si>
+  <si>
+    <t>liste</t>
+  </si>
+  <si>
+    <t>Entretient</t>
+  </si>
+  <si>
+    <t>Embaucher/Decliner</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>Priorite</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Changer etat</t>
+  </si>
+  <si>
     <t>Contrat</t>
   </si>
   <si>
-    <t>liste</t>
-  </si>
-  <si>
-    <t>Entretient</t>
-  </si>
-  <si>
-    <t>Embaucher/Decliner</t>
-  </si>
-  <si>
-    <t>Personnel</t>
-  </si>
-  <si>
-    <t>Priorite</t>
-  </si>
-  <si>
-    <t>Insert</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Changer etat</t>
-  </si>
-  <si>
     <t>Trie</t>
   </si>
   <si>
@@ -109,7 +112,7 @@
     <t>Congée</t>
   </si>
   <si>
-    <t>Demande de congee</t>
+    <t>Demande de congee 15j avant</t>
   </si>
   <si>
     <t>validation superieur  hierarchique et resource humaine</t>
@@ -131,6 +134,24 @@
   </si>
   <si>
     <t>insertion en jour ,heure</t>
+  </si>
+  <si>
+    <t>Type d'absence</t>
+  </si>
+  <si>
+    <t>Etat de paie</t>
+  </si>
+  <si>
+    <t>Exempel FB (1)</t>
+  </si>
+  <si>
+    <t>Uniquement RH</t>
+  </si>
+  <si>
+    <t>Fiche de paie</t>
+  </si>
+  <si>
+    <t>Exempel FB</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1348,7 +1369,7 @@
     </row>
     <row r="35" spans="3:7">
       <c r="C35" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -1356,7 +1377,7 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
         <v>24</v>
@@ -1365,7 +1386,7 @@
     </row>
     <row r="37" spans="3:7">
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
         <v>24</v>
@@ -1377,13 +1398,13 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
@@ -1402,7 +1423,7 @@
     </row>
     <row r="41" spans="3:7">
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" s="2">
         <v>0.75</v>
@@ -1410,7 +1431,7 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
@@ -1418,7 +1439,7 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
@@ -1426,7 +1447,7 @@
     </row>
     <row r="44" spans="3:7">
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
         <v>24</v>
@@ -1438,10 +1459,10 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
         <v>24</v>
@@ -1452,13 +1473,37 @@
     </row>
     <row r="47" customFormat="1" spans="3:7">
       <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>34</v>
+      </c>
       <c r="G47" s="2">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="3:3">
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
